--- a/relatorio/apoio.xlsx
+++ b/relatorio/apoio.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marco\Mestrado Eng Software\Semestre 2\Computação Movel Multisensorial\Relatório\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Marco\Mestrado - Eng Software\Semestre 2\Computação Móvel Multisensorial\cmm\relatorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11856"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1369,11 +1369,58 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conexão reta unidirecional 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5654040" y="1539240"/>
+          <a:ext cx="1264920" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1638,10 +1685,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
